--- a/results/exclude-es.xlsx
+++ b/results/exclude-es.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7985611510791367</v>
+        <v>0.8178506375227687</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7563884156729132</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7108422968008999</v>
+        <v>0.7086492395707977</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7889273356401384</v>
+        <v>0.780327868852459</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7768313458262351</v>
+        <v>0.8109028960817717</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7065814973970339</v>
+        <v>0.7034782606133064</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.793168880455408</v>
+        <v>0.8229571984435797</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7120954003407155</v>
+        <v>0.7206132879045997</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7269018604520053</v>
+        <v>0.7049928660556483</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8130671506352087</v>
+        <v>0.8293135435992579</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7632027257240205</v>
+        <v>0.7614991482112436</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.703751788630506</v>
+        <v>0.6996994394601159</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8068181818181818</v>
+        <v>0.8093525179856115</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7257240204429302</v>
+        <v>0.7666098807495741</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7173276008966143</v>
+        <v>0.7051379885284685</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7610169491525424</v>
+        <v>0.7589134125636672</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7649063032367973</v>
+        <v>0.7614991482112436</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7205138421365631</v>
+        <v>0.723708135887277</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7738693467336684</v>
+        <v>0.7407952871870398</v>
       </c>
       <c r="P8" t="n">
-        <v>0.787052810902896</v>
+        <v>0.8568994889267462</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7137479242337108</v>
+        <v>0.7164355774805781</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8084291187739464</v>
+        <v>0.7768313458262351</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7189097103918228</v>
+        <v>0.7768313458262351</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7161781296709576</v>
+        <v>0.7186958702848705</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8106060606060606</v>
+        <v>0.8117001828153565</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7291311754684838</v>
+        <v>0.7563884156729132</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7089479926318059</v>
+        <v>0.7097759310779653</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7942307692307692</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7819420783645656</v>
+        <v>0.7035775127768313</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7114043312522986</v>
+        <v>0.7205804893387234</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8076190476190476</v>
+        <v>0.7639639639639639</v>
       </c>
       <c r="P12" t="n">
         <v>0.7223168654173765</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7213983361813132</v>
+        <v>0.729497755034287</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7740805604203153</v>
+        <v>0.7864583333333334</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7529812606473595</v>
+        <v>0.7717206132879046</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7199697576367292</v>
+        <v>0.7089980559287665</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8183760683760684</v>
+        <v>0.7927272727272727</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6524701873935264</v>
+        <v>0.7427597955706985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7232161177074449</v>
+        <v>0.7215674419771448</v>
       </c>
     </row>
     <row r="15">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8147448015122873</v>
+        <v>0.8294392523364486</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7342419080068143</v>
+        <v>0.6047700170357752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7052572635621983</v>
+        <v>0.7355359987127934</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.789103690685413</v>
+        <v>0.8022598870056498</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7649063032367973</v>
+        <v>0.7257240204429302</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.715431397564933</v>
+        <v>0.7163238760739437</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8203266787658802</v>
+        <v>0.7923497267759563</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7700170357751278</v>
+        <v>0.7410562180579217</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7019453253357195</v>
+        <v>0.7149432265707352</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7760942760942761</v>
+        <v>0.7638668779714739</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7853492333901193</v>
+        <v>0.8211243611584327</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7129980323140713</v>
+        <v>0.7106170539180608</v>
       </c>
     </row>
     <row r="19">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8165680473372781</v>
+        <v>0.7814113597246127</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7052810902896082</v>
+        <v>0.7734241908006815</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.71260333956567</v>
+        <v>0.7168731364569438</v>
       </c>
     </row>
     <row r="20">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.7984344422700587</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7632027257240205</v>
+        <v>0.6950596252129472</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7103227223449511</v>
+        <v>0.732117329032636</v>
       </c>
     </row>
     <row r="21">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8174442190669371</v>
+        <v>0.7989031078610603</v>
       </c>
       <c r="P21" t="n">
-        <v>0.686541737649063</v>
+        <v>0.7444633730834753</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7223027417588131</v>
+        <v>0.7144791286902367</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8104693140794224</v>
+        <v>0.7973231357552581</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7649063032367973</v>
+        <v>0.7103918228279387</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7046089755619033</v>
+        <v>0.7308829833509585</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7757475083056479</v>
+        <v>0.8127272727272727</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7955706984667802</v>
+        <v>0.7614991482112436</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7083423705571711</v>
+        <v>0.7040431509713758</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.80625</v>
+        <v>0.8010471204188482</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6592844974446337</v>
+        <v>0.7819420783645656</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7332861771399372</v>
+        <v>0.7020048749805008</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7965217391304348</v>
+        <v>0.7625</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7802385008517888</v>
+        <v>0.8313458262350937</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7056114179893624</v>
+        <v>0.7137508320706085</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8072519083969466</v>
+        <v>0.7985212569316081</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7206132879045997</v>
+        <v>0.7359454855195912</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7145220675693561</v>
+        <v>0.7193155708231128</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7787610619469026</v>
+        <v>0.7739837398373983</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7495741056218058</v>
+        <v>0.8109028960817717</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7187213363053973</v>
+        <v>0.7092030649533088</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8136272545090181</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6916524701873935</v>
+        <v>0.7223168654173765</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7194599910867061</v>
+        <v>0.7148473789763553</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8029465930018416</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7427597955706985</v>
+        <v>0.7563884156729132</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7124968503677794</v>
+        <v>0.7116164961597951</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.764612954186414</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8245315161839863</v>
+        <v>0.6950596252129472</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7134174108505249</v>
+        <v>0.7209371804167785</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.811787072243346</v>
+        <v>0.815929203539823</v>
       </c>
       <c r="P31" t="n">
-        <v>0.727427597955707</v>
+        <v>0.7853492333901193</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7122704184618119</v>
+        <v>0.696392488070312</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7978910369068541</v>
+        <v>0.7716814159292036</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7734241908006815</v>
+        <v>0.7427597955706985</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7080140763597939</v>
+        <v>0.7264473364076901</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.7600644122383253</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8040885860306644</v>
+        <v>0.7819420783645656</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7129257502985614</v>
+        <v>0.7145978163751922</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7723292469352014</v>
+        <v>0.8158415841584158</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7512776831345827</v>
+        <v>0.7018739352640545</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7193124153583347</v>
+        <v>0.7193539239817934</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8036036036036036</v>
+        <v>0.8683544303797468</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7597955706984668</v>
+        <v>0.5843270868824532</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7137382611184673</v>
+        <v>0.7326614526720006</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.814176245210728</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7240204429301533</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.712178605820488</v>
+        <v>0.723734712140243</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8269961977186312</v>
+        <v>0.784452296819788</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7410562180579217</v>
+        <v>0.7563884156729132</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7058069498753855</v>
+        <v>0.7130304014733932</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8607594936708861</v>
+        <v>0.7943760984182777</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6950596252129472</v>
+        <v>0.7700170357751278</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7046078070038889</v>
+        <v>0.7104788893282158</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.814176245210728</v>
+        <v>0.7865748709122203</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7240204429301533</v>
+        <v>0.778534923339012</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7106072823377126</v>
+        <v>0.7150524376287992</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.802491103202847</v>
+        <v>0.8210735586481114</v>
       </c>
       <c r="P40" t="n">
-        <v>0.768313458262351</v>
+        <v>0.7035775127768313</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7046863807629107</v>
+        <v>0.7161893325302222</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.7622149837133551</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="P41" t="n">
-        <v>0.797274275979557</v>
+        <v>0.7768313458262351</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7159673443679646</v>
+        <v>0.7116684355960895</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8234165067178503</v>
+        <v>0.7978533094812165</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7308347529812607</v>
+        <v>0.7597955706984668</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7055298141143864</v>
+        <v>0.7103446494356246</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7628205128205128</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5536626916524702</v>
+        <v>0.8109028960817717</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7371927292561838</v>
+        <v>0.7142147900208895</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8325242718446602</v>
+        <v>0.8030018761726079</v>
       </c>
       <c r="P44" t="n">
-        <v>0.5843270868824532</v>
+        <v>0.7291311754684838</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7408874582323394</v>
+        <v>0.7221452964733599</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7797716150081566</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7086882453151618</v>
+        <v>0.8143100511073254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7166043770671402</v>
+        <v>0.7072427091168744</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8022388059701493</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7325383304940375</v>
+        <v>0.7904599659284497</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7137779749514207</v>
+        <v>0.7106344656371252</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7931654676258992</v>
+        <v>0.8266384778012685</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7512776831345827</v>
+        <v>0.666098807495741</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7146677912049028</v>
+        <v>0.7229490638290864</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8300653594771242</v>
+        <v>0.7875210792580101</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6490630323679727</v>
+        <v>0.7955706984667802</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7203030596475233</v>
+        <v>0.7131379622758203</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.826722338204593</v>
+        <v>0.7904929577464789</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6746166950596252</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7178935093941095</v>
+        <v>0.7099645887321668</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8286852589641435</v>
+        <v>0.7926186291739895</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7086882453151618</v>
+        <v>0.768313458262351</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7140881258019051</v>
+        <v>0.712380584473262</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.8010471204188482</v>
       </c>
       <c r="P51" t="n">
-        <v>0.706984667802385</v>
+        <v>0.7819420783645656</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7105549018782096</v>
+        <v>0.7089908913481389</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.787085514834206</v>
+        <v>0.7507645259938838</v>
       </c>
       <c r="P52" t="n">
-        <v>0.768313458262351</v>
+        <v>0.8364565587734242</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7179358568314319</v>
+        <v>0.7223921226329558</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8123861566484517</v>
+        <v>0.8185483870967742</v>
       </c>
       <c r="P53" t="n">
-        <v>0.7597955706984668</v>
+        <v>0.6916524701873935</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7045205179202199</v>
+        <v>0.7176799518355996</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.794066317626527</v>
+        <v>0.8065134099616859</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7751277683134583</v>
+        <v>0.717206132879046</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7150369028165106</v>
+        <v>0.7204489720737474</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8115384615384615</v>
+        <v>0.8081395348837209</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7189097103918228</v>
+        <v>0.7103918228279387</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7130162554749092</v>
+        <v>0.7175134497139075</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7941680960548885</v>
+        <v>0.7863397548161121</v>
       </c>
       <c r="P56" t="n">
-        <v>0.7887563884156729</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7070214763731404</v>
+        <v>0.7130389420771291</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7585034013605442</v>
+        <v>0.7689822294022617</v>
       </c>
       <c r="P57" t="n">
-        <v>0.7597955706984668</v>
+        <v>0.8109028960817717</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7285370529977038</v>
+        <v>0.7151678606164302</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7959927140255009</v>
+        <v>0.8061041292639138</v>
       </c>
       <c r="P58" t="n">
-        <v>0.7444633730834753</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7175340000140309</v>
+        <v>0.7036830979867043</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8129770992366412</v>
+        <v>0.8</v>
       </c>
       <c r="P59" t="n">
-        <v>0.7257240204429302</v>
+        <v>0.7359454855195912</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7163438924904033</v>
+        <v>0.7111924966005808</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7988394584139265</v>
+        <v>0.8596938775510204</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7035775127768313</v>
+        <v>0.5741056218057922</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7207898553860546</v>
+        <v>0.7421095772874202</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.827433628318584</v>
+        <v>0.8096192384769539</v>
       </c>
       <c r="P61" t="n">
-        <v>0.637137989778535</v>
+        <v>0.6882453151618398</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7281868659887191</v>
+        <v>0.7220468157862389</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8051001821493625</v>
+        <v>0.8030018761726079</v>
       </c>
       <c r="P62" t="n">
-        <v>0.7529812606473595</v>
+        <v>0.7291311754684838</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7086485235476186</v>
+        <v>0.7093931375143354</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6933560477001703</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.7285963718983237</v>
+        <v>0.7105056740695315</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.8245614035087719</v>
+        <v>0.789103690685413</v>
       </c>
       <c r="P64" t="n">
-        <v>0.7206132879045997</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7179873954073043</v>
+        <v>0.7191944204174909</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="P65" t="n">
-        <v>0.7308347529812607</v>
+        <v>0.6984667802385008</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.715800553176536</v>
+        <v>0.7224899389713108</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.7962003454231433</v>
+        <v>0.774247491638796</v>
       </c>
       <c r="P66" t="n">
-        <v>0.7853492333901193</v>
+        <v>0.7887563884156729</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7067010041981807</v>
+        <v>0.7161575090220046</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.7761674718196457</v>
+        <v>0.7773851590106007</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8211243611584327</v>
+        <v>0.7495741056218058</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7034670621028786</v>
+        <v>0.7211762385306952</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8237704918032787</v>
+        <v>0.7996323529411765</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6848381601362862</v>
+        <v>0.7410562180579217</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7181663592485911</v>
+        <v>0.7139440473057169</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.8408602150537634</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="P69" t="n">
-        <v>0.666098807495741</v>
+        <v>0.6916524701873935</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7161140493057316</v>
+        <v>0.7147781631465634</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.7732283464566929</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6882453151618398</v>
+        <v>0.8364565587734242</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.715219570587633</v>
+        <v>0.7067357721246875</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.7715231788079471</v>
+        <v>0.7748776508972267</v>
       </c>
       <c r="P71" t="n">
-        <v>0.7938671209540034</v>
+        <v>0.8091993185689949</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7110058601322092</v>
+        <v>0.7127816802442329</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8278867102396514</v>
+        <v>0.7853403141361257</v>
       </c>
       <c r="P72" t="n">
-        <v>0.6473594548551959</v>
+        <v>0.7666098807495741</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7251136901552585</v>
+        <v>0.7179413882959554</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.809009009009009</v>
+        <v>0.7911714770797963</v>
       </c>
       <c r="P73" t="n">
-        <v>0.7649063032367973</v>
+        <v>0.7938671209540034</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7030062440127263</v>
+        <v>0.7067055876162942</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8118811881188119</v>
       </c>
       <c r="P74" t="n">
-        <v>0.7393526405451448</v>
+        <v>0.6984667802385008</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7126834402780164</v>
+        <v>0.719612517070361</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8336886993603412</v>
+        <v>0.8057851239669421</v>
       </c>
       <c r="P75" t="n">
-        <v>0.666098807495741</v>
+        <v>0.6643952299829642</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7210716167744649</v>
+        <v>0.7293650223973484</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8136200716845878</v>
+        <v>0.7873462214411248</v>
       </c>
       <c r="P76" t="n">
-        <v>0.7734241908006815</v>
+        <v>0.7632027257240205</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7051628301072018</v>
+        <v>0.7144711959003891</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8071570576540755</v>
+        <v>0.7986230636833046</v>
       </c>
       <c r="P77" t="n">
-        <v>0.6916524701873935</v>
+        <v>0.7904599659284497</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7276286101648224</v>
+        <v>0.705494934397194</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.8175824175824176</v>
+        <v>0.7716666666666666</v>
       </c>
       <c r="P78" t="n">
-        <v>0.6337308347529813</v>
+        <v>0.7887563884156729</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.7358585391433454</v>
+        <v>0.7147252293615383</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.8060836501901141</v>
+        <v>0.7840531561461794</v>
       </c>
       <c r="P79" t="n">
-        <v>0.7223168654173765</v>
+        <v>0.8040885860306644</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7194172780912833</v>
+        <v>0.7051202872280399</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7982142857142858</v>
+        <v>0.7881508078994613</v>
       </c>
       <c r="P80" t="n">
-        <v>0.7614991482112436</v>
+        <v>0.747870528109029</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.719741068428678</v>
+        <v>0.7132095418262892</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8010752688172043</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="P81" t="n">
-        <v>0.7614991482112436</v>
+        <v>0.6814310051107325</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7099591529420517</v>
+        <v>0.7170620709018134</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7724957555178268</v>
+        <v>0.816793893129771</v>
       </c>
       <c r="P82" t="n">
-        <v>0.7751277683134583</v>
+        <v>0.7291311754684838</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7161646173235684</v>
+        <v>0.7105972695248322</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7920962199312714</v>
+        <v>0.750392464678179</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7853492333901193</v>
+        <v>0.8143100511073254</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.7111973977395905</v>
+        <v>0.7188557191979732</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.8197424892703863</v>
+        <v>0.8179871520342612</v>
       </c>
       <c r="P84" t="n">
         <v>0.6507666098807495</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7226867852292859</v>
+        <v>0.7322090815576873</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7995951417004049</v>
+        <v>0.7637540453074434</v>
       </c>
       <c r="P85" t="n">
-        <v>0.6729131175468483</v>
+        <v>0.8040885860306644</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.731499578819766</v>
+        <v>0.7180025168242884</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.8400852878464818</v>
+        <v>0.7992700729927007</v>
       </c>
       <c r="P86" t="n">
-        <v>0.6712095400340715</v>
+        <v>0.7461669505962522</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7148901513206088</v>
+        <v>0.7219060894757381</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.7964601769911505</v>
+        <v>0.7864583333333334</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7666098807495741</v>
+        <v>0.7717206132879046</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7085298417463834</v>
+        <v>0.7093431686127135</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.8051001821493625</v>
+        <v>0.7824620573355818</v>
       </c>
       <c r="P88" t="n">
-        <v>0.7529812606473595</v>
+        <v>0.7904599659284497</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7125490080133529</v>
+        <v>0.713548062696989</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7845849802371542</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="P89" t="n">
-        <v>0.676320272572402</v>
+        <v>0.8126064735945485</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7343266284005324</v>
+        <v>0.7109589771139775</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.810546875</v>
+        <v>0.7918871252204586</v>
       </c>
       <c r="P90" t="n">
-        <v>0.706984667802385</v>
+        <v>0.7649063032367973</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7261415039520919</v>
+        <v>0.7142308418331228</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.79957805907173</v>
       </c>
       <c r="P91" t="n">
-        <v>0.6916524701873935</v>
+        <v>0.645655877342419</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.7161078637249991</v>
+        <v>0.7398705643645683</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="P92" t="n">
-        <v>0.7359454855195912</v>
+        <v>0.6337308347529813</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7147677967988371</v>
+        <v>0.7237616900210728</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.7603174603174603</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="P93" t="n">
-        <v>0.8160136286201022</v>
+        <v>0.6882453151618398</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.7141229049842245</v>
+        <v>0.7202644992795625</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.8574561403508771</v>
+        <v>0.8035087719298246</v>
       </c>
       <c r="P94" t="n">
-        <v>0.666098807495741</v>
+        <v>0.7802385008517888</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.7156640398655838</v>
+        <v>0.7070314234418419</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.7863105175292153</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="P95" t="n">
-        <v>0.8023850085178875</v>
+        <v>0.7529812606473595</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7055569792510102</v>
+        <v>0.7147261559195784</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.8097826086956522</v>
+        <v>0.8151260504201681</v>
       </c>
       <c r="P96" t="n">
-        <v>0.7614991482112436</v>
+        <v>0.6609880749574105</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.7035839422066325</v>
+        <v>0.7286995915384251</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.7637795275590551</v>
+        <v>0.7754010695187166</v>
       </c>
       <c r="P97" t="n">
-        <v>0.8262350936967632</v>
+        <v>0.7410562180579217</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7112615302908574</v>
+        <v>0.7248207791168803</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.7989031078610603</v>
+        <v>0.7862318840579711</v>
       </c>
       <c r="P98" t="n">
-        <v>0.7444633730834753</v>
+        <v>0.7393526405451448</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.7126774327437765</v>
+        <v>0.7211932657614286</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.7683333333333333</v>
+        <v>0.7503974562798092</v>
       </c>
       <c r="P99" t="n">
-        <v>0.7853492333901193</v>
+        <v>0.8040885860306644</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.7129741316189582</v>
+        <v>0.7204273304714154</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.7813021702838063</v>
+        <v>0.8252032520325203</v>
       </c>
       <c r="P100" t="n">
-        <v>0.797274275979557</v>
+        <v>0.6916524701873935</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7090299981346457</v>
+        <v>0.7177669060588394</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.796875</v>
+        <v>0.810546875</v>
       </c>
       <c r="P101" t="n">
-        <v>0.7819420783645656</v>
+        <v>0.706984667802385</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.7034645047310596</v>
+        <v>0.7161875190653003</v>
       </c>
     </row>
   </sheetData>
